--- a/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE23A49-CD6B-4F97-BB90-D69FEBEFDB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCAF665-8AA8-41D7-B2B7-439B87AA4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1169D986-035F-4FA1-95B6-59C43996F207}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCC0CB98-8E84-485B-923F-8EF4E0E9D69A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,55 +104,55 @@
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -161,40 +161,40 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -203,37 +203,37 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F569856-69F4-45AD-A461-23C11201D172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962BF5A-9FF2-4C61-BD69-70C4BE2A09AF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCAF665-8AA8-41D7-B2B7-439B87AA4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF5530D-7A74-4A28-8410-143E7B8A4C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCC0CB98-8E84-485B-923F-8EF4E0E9D69A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A639A1B9-5B4E-4C86-A2BC-F98C4009E7C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962BF5A-9FF2-4C61-BD69-70C4BE2A09AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FF014F-E970-48C5-A815-C65B98AC0568}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF5530D-7A74-4A28-8410-143E7B8A4C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164C7E29-BF09-4B85-95FD-3954014B66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A639A1B9-5B4E-4C86-A2BC-F98C4009E7C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41D0FEB2-AE8D-4204-A80A-F4680AB478B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,55 +104,55 @@
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -161,40 +161,40 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -203,37 +203,37 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FF014F-E970-48C5-A815-C65B98AC0568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE8FBA6-E119-4D02-AC92-1D33111A6187}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164C7E29-BF09-4B85-95FD-3954014B66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{085750BD-D122-444E-8918-F7569E2B7FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41D0FEB2-AE8D-4204-A80A-F4680AB478B6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A8AF2D8E-36FE-4D66-845D-3461F0E849CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="151">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
@@ -86,157 +86,406 @@
     <t>Sí, por sí solo/a</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -651,8 +900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE8FBA6-E119-4D02-AC92-1D33111A6187}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047EB29-1226-4EC8-BC2B-EA6377911A74}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2129,10 +2378,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>2598</v>
+        <v>632</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>21</v>
@@ -2144,10 +2393,10 @@
         <v>23</v>
       </c>
       <c r="H34" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>14514</v>
+        <v>2223</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>24</v>
@@ -2159,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="M34" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>17112</v>
+        <v>2856</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>27</v>
@@ -2180,10 +2429,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D35" s="7">
-        <v>36835</v>
+        <v>13631</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>30</v>
@@ -2195,10 +2444,10 @@
         <v>32</v>
       </c>
       <c r="H35" s="7">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="I35" s="7">
-        <v>85786</v>
+        <v>17600</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>33</v>
@@ -2210,10 +2459,10 @@
         <v>35</v>
       </c>
       <c r="M35" s="7">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="N35" s="7">
-        <v>122621</v>
+        <v>31231</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -2231,49 +2480,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7">
         <v>1</v>
       </c>
-      <c r="D36" s="7">
-        <v>709</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="I36" s="7">
+        <v>588</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="7">
-        <v>8</v>
-      </c>
-      <c r="I36" s="7">
-        <v>4758</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>588</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="M36" s="7">
-        <v>9</v>
-      </c>
-      <c r="N36" s="7">
-        <v>5467</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2531,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>7479</v>
+        <v>2393</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1998</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="7">
-        <v>35</v>
-      </c>
-      <c r="I37" s="7">
-        <v>22092</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>8</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4391</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="M37" s="7">
-        <v>47</v>
-      </c>
-      <c r="N37" s="7">
-        <v>29572</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2582,49 @@
         <v>15</v>
       </c>
       <c r="C38" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7">
-        <v>25273</v>
+        <v>9663</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="7">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5400</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="7">
-        <v>37</v>
-      </c>
-      <c r="I38" s="7">
-        <v>22410</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>27</v>
+      </c>
+      <c r="N38" s="7">
+        <v>15063</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M38" s="7">
-        <v>74</v>
-      </c>
-      <c r="N38" s="7">
-        <v>47683</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,102 +2633,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D39" s="7">
-        <v>72894</v>
+        <v>26319</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H39" s="7">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="I39" s="7">
-        <v>149561</v>
+        <v>27809</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M39" s="7">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="N39" s="7">
-        <v>222455</v>
+        <v>54129</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="7">
-        <v>2598</v>
+        <v>1845</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="7">
         <v>21</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="7">
-        <v>25</v>
-      </c>
       <c r="I40" s="7">
-        <v>14514</v>
+        <v>10807</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="7">
         <v>26</v>
       </c>
-      <c r="M40" s="7">
-        <v>31</v>
-      </c>
       <c r="N40" s="7">
-        <v>17112</v>
+        <v>12652</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,49 +2737,49 @@
         <v>12</v>
       </c>
       <c r="C41" s="7">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7">
-        <v>36835</v>
+        <v>20698</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H41" s="7">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="I41" s="7">
-        <v>85786</v>
+        <v>60159</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="M41" s="7">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="N41" s="7">
-        <v>122621</v>
+        <v>80858</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,46 +2791,46 @@
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H42" s="7">
+        <v>7</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3514</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="7">
         <v>8</v>
       </c>
-      <c r="I42" s="7">
-        <v>4758</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="7">
-        <v>9</v>
-      </c>
       <c r="N42" s="7">
-        <v>5467</v>
+        <v>4115</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,49 +2839,49 @@
         <v>14</v>
       </c>
       <c r="C43" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D43" s="7">
-        <v>7479</v>
+        <v>4182</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H43" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I43" s="7">
-        <v>22092</v>
+        <v>16414</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="M43" s="7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N43" s="7">
-        <v>29572</v>
+        <v>20596</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,49 +2890,49 @@
         <v>15</v>
       </c>
       <c r="C44" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D44" s="7">
-        <v>25273</v>
+        <v>13366</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H44" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I44" s="7">
-        <v>22410</v>
+        <v>13277</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="M44" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N44" s="7">
-        <v>47683</v>
+        <v>26643</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,63 +2941,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>69</v>
+      </c>
+      <c r="D45" s="7">
+        <v>40692</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="7">
+        <v>207</v>
+      </c>
+      <c r="I45" s="7">
+        <v>104171</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="7">
+        <v>276</v>
+      </c>
+      <c r="N45" s="7">
+        <v>144864</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2478</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="7">
+        <v>25</v>
+      </c>
+      <c r="I46" s="7">
+        <v>13030</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="7">
-        <v>72894</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="K46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M46" s="7">
+        <v>31</v>
+      </c>
+      <c r="N46" s="7">
+        <v>15508</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>55</v>
+      </c>
+      <c r="D47" s="7">
+        <v>34330</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="7">
+        <v>158</v>
+      </c>
+      <c r="I47" s="7">
+        <v>77759</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="7">
+        <v>213</v>
+      </c>
+      <c r="N47" s="7">
+        <v>112089</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
+        <v>601</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="7">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7">
+        <v>4102</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M48" s="7">
+        <v>9</v>
+      </c>
+      <c r="N48" s="7">
+        <v>4703</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="7">
+        <v>12</v>
+      </c>
+      <c r="D49" s="7">
+        <v>6575</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="7">
+        <v>35</v>
+      </c>
+      <c r="I49" s="7">
+        <v>18412</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M49" s="7">
+        <v>47</v>
+      </c>
+      <c r="N49" s="7">
+        <v>24987</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7">
+        <v>37</v>
+      </c>
+      <c r="D50" s="7">
+        <v>23029</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="7">
+        <v>37</v>
+      </c>
+      <c r="I50" s="7">
+        <v>18678</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M50" s="7">
+        <v>74</v>
+      </c>
+      <c r="N50" s="7">
+        <v>41706</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>111</v>
+      </c>
+      <c r="D51" s="7">
+        <v>67012</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="7">
         <v>263</v>
       </c>
-      <c r="I45" s="7">
-        <v>149561</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>131981</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="7">
         <v>374</v>
       </c>
-      <c r="N45" s="7">
-        <v>222455</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>67</v>
+      <c r="N51" s="7">
+        <v>198993</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
